--- a/examples/models/integrated_excel.xlsx
+++ b/examples/models/integrated_excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21696" windowHeight="22008" tabRatio="831" activeTab="1"/>
+    <workbookView windowWidth="21696" windowHeight="9132" tabRatio="831" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Operations" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="99">
   <si>
     <t>Unit Operations</t>
   </si>
@@ -199,6 +199,9 @@
     <t>regeneration [CV]</t>
   </si>
   <si>
+    <t>peak sigma [min]</t>
+  </si>
+  <si>
     <t>load col1 outlet conc ratio []</t>
   </si>
   <si>
@@ -211,28 +214,31 @@
     <t>DBC_100% [mg/mL]</t>
   </si>
   <si>
+    <t>min fill level rel []</t>
+  </si>
+  <si>
     <t>peak_eval_CV [mL]</t>
   </si>
   <si>
-    <t>min fill level rel []</t>
+    <t>starts empty []</t>
   </si>
   <si>
     <t>peak_max [mL]</t>
   </si>
   <si>
-    <t>starts empty []</t>
-  </si>
-  <si>
     <t>peak_a [mL]</t>
   </si>
   <si>
     <t>peak_b [mL]</t>
   </si>
   <si>
+    <t>n tanks []</t>
+  </si>
+  <si>
     <t>peak_ab / peak_max []</t>
   </si>
   <si>
-    <t>n tanks []</t>
+    <t>residence time [min]</t>
   </si>
   <si>
     <t>peak collection start [CV]</t>
@@ -241,7 +247,7 @@
     <t>peak_start / peak_max []</t>
   </si>
   <si>
-    <t>residence time [min]</t>
+    <t>volume reduction []</t>
   </si>
   <si>
     <t>peak collection end [CV]</t>
@@ -250,19 +256,16 @@
     <t>peak_end / peak_max []</t>
   </si>
   <si>
-    <t>volume reduction []</t>
+    <t>switch time [min]</t>
   </si>
   <si>
     <t>unaccounted_losses []</t>
   </si>
   <si>
-    <t>switch time [min]</t>
+    <t>efficiency []</t>
   </si>
   <si>
     <t>HETP [cm]</t>
-  </si>
-  <si>
-    <t>efficiency []</t>
   </si>
   <si>
     <t>recycle_wash []</t>
@@ -318,10 +321,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -363,16 +366,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,36 +376,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,8 +389,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,41 +478,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -492,7 +495,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,19 +518,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,43 +638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,115 +650,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,6 +834,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -840,13 +867,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,30 +893,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,157 +921,153 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -1072,7 +1075,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1103,9 +1106,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="47" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1116,9 +1116,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1545,25 +1542,25 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="33" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1628,7 +1625,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="40"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1699,22 +1696,22 @@
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="41"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="1002:1002">
       <c r="ALN14"/>
     </row>
     <row r="15" spans="2:1002">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="37" t="s">
         <v>0</v>
       </c>
       <c r="ALN15"/>
     </row>
     <row r="16" spans="2:1002">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="37" t="s">
         <v>32</v>
       </c>
       <c r="ALN16"/>
@@ -1723,7 +1720,7 @@
       <c r="ALN17"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="33" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1743,7 +1740,7 @@
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="33" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1753,7 +1750,7 @@
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="33" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1768,7 +1765,7 @@
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="33" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1803,10 +1800,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:L31"/>
+  <dimension ref="B3:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1847,7 +1844,7 @@
       <c r="H3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="31" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -1929,7 +1926,7 @@
         <v>48</v>
       </c>
       <c r="L6" s="14">
-        <v>20</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7" spans="2:12">
@@ -1956,7 +1953,7 @@
         <v>50</v>
       </c>
       <c r="L7" s="14">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -2053,13 +2050,13 @@
         <v>20</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="20" t="s">
         <v>57</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="20" t="s">
         <v>57</v>
       </c>
       <c r="I12">
@@ -2074,283 +2071,277 @@
         <v>68</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="23">
         <v>3</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="13" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C14" s="14">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7">
         <v>0.7</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I14" s="7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="14">
-        <v>200</v>
-      </c>
+    <row r="15" spans="4:9">
       <c r="D15" s="7"/>
       <c r="E15" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F15">
         <v>35</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="36">
+        <v>63</v>
+      </c>
+      <c r="I15" s="25">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="4:9">
+    <row r="16" spans="2:9">
+      <c r="B16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F16">
         <v>50</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I16" s="24">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>16</v>
+      <c r="B17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.1</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F17" s="22">
         <v>20</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I17">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="16">
-        <v>0.1</v>
+      <c r="B18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="17" t="b">
+        <v>1</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F18" s="7">
         <v>24</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I18">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="17" t="b">
-        <v>1</v>
-      </c>
+    <row r="19" spans="4:9">
       <c r="D19" s="7"/>
       <c r="E19" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F19" s="7">
         <v>18</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="4:9">
+    <row r="20" spans="2:9">
+      <c r="B20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="D20" s="7"/>
       <c r="E20" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F20" s="7">
         <v>65</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="37">
+        <v>70</v>
+      </c>
+      <c r="I20" s="7">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="12">
         <v>3</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="E21" s="21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F21" s="23">
         <v>0.05</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="36">
+        <v>72</v>
+      </c>
+      <c r="I21" s="25">
         <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="12">
-        <v>3</v>
+      <c r="B22" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F22">
         <v>0.8</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" s="29">
+        <v>75</v>
+      </c>
+      <c r="I22" s="26">
         <v>0.15</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
+        <v>76</v>
+      </c>
+      <c r="C23" s="14">
+        <v>5</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F23">
         <v>2.8</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I23" s="36">
+        <v>78</v>
+      </c>
+      <c r="I23" s="25">
         <v>0.08</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C24" s="14">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="26">
         <v>0.8</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="I24" s="31">
+        <v>80</v>
+      </c>
+      <c r="I24" s="28">
         <v>0.15</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C25" s="14">
-        <v>1000</v>
+        <v>0.995</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F25" s="24">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="14">
-        <v>0.995</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="31">
+    <row r="26" spans="5:6">
+      <c r="E26" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="28">
         <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="5:6">
-      <c r="E27" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="32" t="b">
+      <c r="E27" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="29" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="5:6">
       <c r="E28" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="33" t="b">
+        <v>84</v>
+      </c>
+      <c r="F28" s="30" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="5" t="s">
-        <v>84</v>
+    <row r="30" spans="2:2">
+      <c r="B30" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2366,7 +2357,7 @@
   <dimension ref="B3:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -2382,19 +2373,19 @@
   <sheetData>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -2402,13 +2393,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2419,13 +2410,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2433,7 +2424,7 @@
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2475,10 +2466,10 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -2551,10 +2542,10 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2624,18 +2615,18 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D25" s="4"/>
     </row>
